--- a/medicine/Enfance/Broučci/Broučci.xlsx
+++ b/medicine/Enfance/Broučci/Broučci.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brou%C4%8Dci</t>
+          <t>Broučci</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Broučci (Lucioles) est un classique de la littérature enfantine tchèque. Écrit par Jan Karafiát, il fut publié au début des années 1870. En tchèque, broučci désigne aussi les personnages de contes de fées qui ont des formes d'insectes
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brou%C4%8Dci</t>
+          <t>Broučci</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1967 : série de courts films animés Broučci par Libuše Koutná</t>
         </is>
